--- a/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defect_Rectification_Log.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defect_Rectification_Log.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rectification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rectification" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,8 +480,6 @@
           <t>2024-09-28</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -523,8 +502,6 @@
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Open</t>
@@ -547,11 +524,569 @@
           <t>2024-09-30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4796</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32319</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>39120</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9802</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35992</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>12244</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38088</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>25674</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45855</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>42447</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22980</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30382</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8801</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>19175</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38208</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>49951</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30120</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>28998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23218</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>48294</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20928</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>45206</v>
+      </c>
+      <c r="E16" t="n">
+        <v>41992</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>36868</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11758</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>39936</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7287</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18992</v>
+      </c>
+      <c r="E19" t="n">
+        <v>49264</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>41158</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33064</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>49543</v>
+      </c>
+      <c r="E21" t="n">
+        <v>34989</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>24412</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32295</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>27567</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32699</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>16609</v>
+      </c>
+      <c r="E24" t="n">
+        <v>33930</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
         </is>
       </c>
     </row>

--- a/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defect_Rectification_Log.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defect_Rectification_Log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,6 +1090,986 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10649</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13419</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>18754</v>
+      </c>
+      <c r="E26" t="n">
+        <v>33292</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>33519</v>
+      </c>
+      <c r="E27" t="n">
+        <v>49893</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18353</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20246</v>
+      </c>
+      <c r="E29" t="n">
+        <v>25676</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>22148</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13342</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10419</v>
+      </c>
+      <c r="E31" t="n">
+        <v>30221</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>30604</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15373</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36616</v>
+      </c>
+      <c r="E33" t="n">
+        <v>21137</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>14098</v>
+      </c>
+      <c r="E34" t="n">
+        <v>41492</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>29318</v>
+      </c>
+      <c r="E35" t="n">
+        <v>38274</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8107</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5691</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>18409</v>
+      </c>
+      <c r="E37" t="n">
+        <v>22293</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>24324</v>
+      </c>
+      <c r="E38" t="n">
+        <v>43590</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>12284</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8154</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11650</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>23379</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17775</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5452</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2732</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>36026</v>
+      </c>
+      <c r="E43" t="n">
+        <v>42678</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>39220</v>
+      </c>
+      <c r="E44" t="n">
+        <v>30652</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20524</v>
+      </c>
+      <c r="E45" t="n">
+        <v>46153</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>41724</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4929</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>47182</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9098</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>33869</v>
+      </c>
+      <c r="E48" t="n">
+        <v>45140</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15620</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47938</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>46168</v>
+      </c>
+      <c r="E50" t="n">
+        <v>30958</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>45957</v>
+      </c>
+      <c r="E51" t="n">
+        <v>45648</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1848</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7642</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>36993</v>
+      </c>
+      <c r="E53" t="n">
+        <v>31496</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>40482</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45885</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>12904</v>
+      </c>
+      <c r="E55" t="n">
+        <v>15367</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Item 55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Item 55</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Item 55</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>17334</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14647</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Item 55</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Item 56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Item 56</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Item 56</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>14797</v>
+      </c>
+      <c r="E57" t="n">
+        <v>36303</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Item 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Item 57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Item 57</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Item 57</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>45548</v>
+      </c>
+      <c r="E58" t="n">
+        <v>31073</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Item 57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Item 58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Item 58</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Item 58</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>24883</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14324</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Item 58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
